--- a/原始施工记录/13号楼/竣工资料/6.桩基验收.xlsx
+++ b/原始施工记录/13号楼/竣工资料/6.桩基验收.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="第1页" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>桩基工程验收记录</t>
   </si>
@@ -22,19 +22,16 @@
     <t>监督注册号</t>
   </si>
   <si>
-    <t>A0202-20-059</t>
-  </si>
-  <si>
     <t>工程名称</t>
   </si>
   <si>
-    <t>大同七里村碧桂园二期桩基础工程1#楼</t>
+    <t>大同七里村碧桂园一期桩基础工程13#楼</t>
   </si>
   <si>
     <t>施工单位</t>
   </si>
   <si>
-    <t>江苏南通二建集团有限公司</t>
+    <t>山西六建集团有限公司</t>
   </si>
   <si>
     <t>技术负责人</t>
@@ -47,7 +44,7 @@
     <t>项目经理</t>
   </si>
   <si>
-    <t>杨士庆</t>
+    <t>王日清</t>
   </si>
   <si>
     <t>技术部门负责人</t>
@@ -151,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -201,8 +198,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -216,27 +242,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -249,16 +263,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -272,47 +279,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -325,17 +293,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -350,12 +309,50 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -372,73 +369,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,37 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,61 +543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,8 +891,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -916,6 +915,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -933,29 +941,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,6 +963,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -992,138 +989,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1643,26 +1640,26 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="O5" sqref="O5:Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14814814814815" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.15238095238095" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.287037037037037" customWidth="1"/>
-    <col min="2" max="2" width="4.71296296296296" customWidth="1"/>
-    <col min="3" max="9" width="3.56481481481481" customWidth="1"/>
-    <col min="10" max="10" width="4.28703703703704" customWidth="1"/>
-    <col min="11" max="11" width="9.14814814814815" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="3.56481481481481" customWidth="1"/>
-    <col min="13" max="14" width="4.43518518518519" customWidth="1"/>
-    <col min="15" max="16" width="3.85185185185185" customWidth="1"/>
-    <col min="17" max="18" width="4.56481481481481" customWidth="1"/>
-    <col min="19" max="19" width="3.56481481481481" customWidth="1"/>
+    <col min="1" max="1" width="0.285714285714286" customWidth="1"/>
+    <col min="2" max="2" width="4.71428571428571" customWidth="1"/>
+    <col min="3" max="9" width="3.56190476190476" customWidth="1"/>
+    <col min="10" max="10" width="4.28571428571429" customWidth="1"/>
+    <col min="11" max="11" width="9.15238095238095" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="3.56190476190476" customWidth="1"/>
+    <col min="13" max="14" width="4.43809523809524" customWidth="1"/>
+    <col min="15" max="16" width="3.84761904761905" customWidth="1"/>
+    <col min="17" max="18" width="4.56190476190476" customWidth="1"/>
+    <col min="19" max="19" width="3.56190476190476" customWidth="1"/>
     <col min="20" max="20" width="3" customWidth="1"/>
-    <col min="21" max="21" width="3.43518518518518" customWidth="1"/>
-    <col min="22" max="22" width="5.14814814814815" customWidth="1"/>
-    <col min="23" max="23" width="3.28703703703704" customWidth="1"/>
-    <col min="24" max="24" width="5.14814814814815" customWidth="1"/>
+    <col min="21" max="21" width="3.43809523809524" customWidth="1"/>
+    <col min="22" max="22" width="5.15238095238095" customWidth="1"/>
+    <col min="23" max="23" width="3.28571428571429" customWidth="1"/>
+    <col min="24" max="24" width="5.15238095238095" customWidth="1"/>
     <col min="25" max="26" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1788,21 +1785,19 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
@@ -1819,13 +1814,13 @@
     <row r="6" ht="30.75" customHeight="1" spans="1:26">
       <c r="A6" s="8"/>
       <c r="B6" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1836,7 +1831,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -1845,7 +1840,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
@@ -1855,13 +1850,13 @@
     <row r="7" ht="30.75" customHeight="1" spans="1:26">
       <c r="A7" s="8"/>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1872,7 +1867,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -1881,7 +1876,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
@@ -1891,10 +1886,10 @@
     <row r="8" ht="23.1" customHeight="1" spans="1:26">
       <c r="A8" s="8"/>
       <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1906,11 +1901,11 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -1919,7 +1914,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
@@ -1960,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -1976,7 +1971,7 @@
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
@@ -1996,11 +1991,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -2014,7 +2009,7 @@
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
@@ -2034,7 +2029,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -2046,7 +2041,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="12"/>
       <c r="O12" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
@@ -2066,7 +2061,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -2080,7 +2075,7 @@
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -2100,7 +2095,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -2114,7 +2109,7 @@
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
@@ -2134,7 +2129,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -2148,7 +2143,7 @@
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -2168,7 +2163,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -2182,7 +2177,7 @@
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
@@ -2202,7 +2197,7 @@
       <c r="C17" s="14"/>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -2216,7 +2211,7 @@
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
@@ -2236,7 +2231,7 @@
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
       <c r="E18" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -2250,7 +2245,7 @@
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
@@ -2270,7 +2265,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -2286,7 +2281,7 @@
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -2306,7 +2301,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -2335,7 +2330,7 @@
     <row r="21" ht="30.75" customHeight="1" spans="1:26">
       <c r="A21" s="8"/>
       <c r="B21" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -2365,7 +2360,7 @@
     <row r="22" ht="30.75" customHeight="1" spans="1:26">
       <c r="A22" s="8"/>
       <c r="B22" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -2423,35 +2418,35 @@
     <row r="24" ht="28.45" customHeight="1" spans="1:26">
       <c r="A24" s="8"/>
       <c r="B24" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
@@ -2545,35 +2540,35 @@
     <row r="28" ht="25.4" customHeight="1" spans="1:26">
       <c r="A28" s="8"/>
       <c r="B28" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
       <c r="Q28" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
       <c r="U28" s="19"/>
       <c r="V28" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W28" s="19"/>
       <c r="X28" s="19"/>
@@ -2611,35 +2606,35 @@
     <row r="30" ht="26.25" customHeight="1" spans="1:26">
       <c r="A30" s="8"/>
       <c r="B30" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
       <c r="G30" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
       <c r="P30" s="26"/>
       <c r="Q30" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R30" s="26"/>
       <c r="S30" s="26"/>
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
       <c r="V30" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W30" s="26"/>
       <c r="X30" s="26"/>
